--- a/biology/Zoologie/Acroechinoidea/Acroechinoidea.xlsx
+++ b/biology/Zoologie/Acroechinoidea/Acroechinoidea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acroechinoidea sont une infra-classe d'oursins au sein de la sous-classe des oursins (Euechinoidea).
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce taxon a été confirmé par Andreas Kroh (d) et Andrew Benjamin Smith (d)[1] (2010), mais n'est pas encore reconnu par toutes les bases de données phylogénétiques comme ITIS.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce taxon a été confirmé par Andreas Kroh (d) et Andrew Benjamin Smith (d) (2010), mais n'est pas encore reconnu par toutes les bases de données phylogénétiques comme ITIS.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce clade comporte des oursins réguliers, de forme globulaire avec la bouche centrée sur la face inférieure et l'anus à l'opposé, au sommet. Ces oursins ont cinq (parfois moins) paires de plaques ambulacraires autour du péristome, et un test suturé plutôt qu'imbriqué[2].
-Ce groupe est apparu à la fin du Trias[2], et comporte encore de nombreuses espèces abondantes à l'heure actuelle, principalement dans l'ordre des Diadematoida. Ce groupe est considéré comme l'un des plus basals au sein des oursins réguliers, proche des Echinothurioida. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce clade comporte des oursins réguliers, de forme globulaire avec la bouche centrée sur la face inférieure et l'anus à l'opposé, au sommet. Ces oursins ont cinq (parfois moins) paires de plaques ambulacraires autour du péristome, et un test suturé plutôt qu'imbriqué.
+Ce groupe est apparu à la fin du Trias, et comporte encore de nombreuses espèces abondantes à l'heure actuelle, principalement dans l'ordre des Diadematoida. Ce groupe est considéré comme l'un des plus basals au sein des oursins réguliers, proche des Echinothurioida. 
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (19 novembre 2013)[3] : 
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des ordres selon World Register of Marine Species                               (19 novembre 2013) : 
 ordre Aspidodiadematoida Kroh &amp; Smith, 2010
 ordre Diadematoida Duncan, 1889
 ordre Micropygoida Kroh &amp; Smith, 2010
